--- a/v1.1/元件焊接提示BOM1.1.xlsx
+++ b/v1.1/元件焊接提示BOM1.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="89">
   <si>
     <t>标号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -347,6 +347,14 @@
   </si>
   <si>
     <t>USB外壳没接地，要接地的可以背面刮开一点铺铜，镀锡连接，失误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://stm32-posystorage.rhcloud.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/posystorage/stm32-tiny</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -354,7 +362,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,6 +377,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="18"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -378,7 +410,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -438,11 +470,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -474,9 +516,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -827,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1540,8 +1595,56 @@
       <c r="I34" s="5"/>
       <c r="J34" s="6"/>
     </row>
+    <row r="36" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+    </row>
+    <row r="37" spans="1:10" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+    </row>
   </sheetData>
-  <mergeCells count="33">
+  <sheetProtection algorithmName="SHA-512" hashValue="v4D32M9izZY3t2ok1aUEhCFHCRmW6MWZCFIdeVg/CvK/GFJiFt13Nw/a9TZwsxthje7Y67lFlZqkxfzoZ6Kj8g==" saltValue="gZ7otNxjcBbbRwdd26raKw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="35">
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
     <mergeCell ref="A34:J34"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="F2:I2"/>
@@ -1558,27 +1661,14 @@
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A36" r:id="rId1"/>
+    <hyperlink ref="A37" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>